--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Product description</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>50-80%+ Extra 10% Off</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -484,12 +487,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
